--- a/Final Segunda Entrega -  SPMP/FifthFloorCorp - SPMP/SPMP - FifthFloorCorp - Diccionario Acronimos  y Abreviaciones.xlsx
+++ b/Final Segunda Entrega -  SPMP/FifthFloorCorp - SPMP/SPMP - FifthFloorCorp - Diccionario Acronimos  y Abreviaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="270">
   <si>
     <t>Acronimo</t>
   </si>
@@ -252,14 +252,611 @@
     <t>tecnico</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar en el GIT que maneja cada usuario el cual es posible el versionamiento de los archivos </t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>negocio</t>
+  </si>
+  <si>
+    <t>Entidad externa que necesita intercambiar informacion con el sistema.</t>
+  </si>
+  <si>
+    <t>Adquisicion de conocimiento</t>
+  </si>
+  <si>
+    <t>Negocio</t>
+  </si>
+  <si>
+    <t>Actividad de rocopilar datos, organizarlos en informacion y formalizacion en conocimiento</t>
+  </si>
+  <si>
+    <t>Administracion del proyecto</t>
+  </si>
+  <si>
+    <t>Actividad durante la cual los gerentes planean, presupuestan, supervisan y controlan el proceso de desarrollo.</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Papel que representa a los desarrolladores que obtinen informacion del dominio a partir de los usuarios y clientes.</t>
+  </si>
+  <si>
+    <t>Analisis</t>
+  </si>
+  <si>
+    <t>Actividad durante la cual los desarrolladores aseguran que los requerimientos del sistema son correctos , completos, consistentes, no ambiguos y realistas.</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Papel que representa  a la persona o compañía que paga por el desarrollo del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coherencia </t>
+  </si>
+  <si>
+    <t>Fortaleza de las dependencias dentro de un subsistema o una clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correción </t>
+  </si>
+  <si>
+    <t>Cambio a un componente con el proposito de reparar un defecto</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Bruegge Glosario</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Producto de Trabajo destinado al cliente</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Conjunto de participantes que trabaja en un problema común dentro de un proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo de revisiones cruzadas </t>
+  </si>
+  <si>
+    <t>Equipo de revisones Cruzada</t>
+  </si>
+  <si>
+    <t>Escenario</t>
+  </si>
+  <si>
+    <t>Instacia de un caso de uso. Un escenario representa una secuencia concreta de interaciones entre uno o mas actores y el sistema</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Condicion que satisface con los valores de los atributos de un objeto o un subsistema</t>
+  </si>
+  <si>
+    <t>Instalacion</t>
+  </si>
+  <si>
+    <t>Actividad durante la cual se instala y prueba el sistema en su ambiente de operacion</t>
+  </si>
+  <si>
+    <t>Lanzamiento</t>
+  </si>
+  <si>
+    <t>En comunicaciones, un modo de comunicacion calendarizado durante el cual un desarrollador pone a disposicion del resto del proyecto una nueva version de un producto de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linea base </t>
+  </si>
+  <si>
+    <t>Version del articulo de configuración que se ha revisado de una manera formal y con el que se esta de acuerdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metodo </t>
+  </si>
+  <si>
+    <t>en el contexto del desarrollo, una tecnica repetible para la resolucion de un problema especifico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodologia </t>
+  </si>
+  <si>
+    <t>conjunto de metodos para la resolucion de una clase de problemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo </t>
+  </si>
+  <si>
+    <t>Abstraccion de un sistema orientada a la simplificacion del razonamiento acerca del sistema omitiendo los detalles irrelevantes.</t>
+  </si>
+  <si>
+    <t>Modelo bazar</t>
+  </si>
+  <si>
+    <t>Organizacion de proyecto que enfatiza la planeacion, la arquitectura del sistema y el control jerárquico.</t>
+  </si>
+  <si>
+    <t>Modelo de ciclo de vida</t>
+  </si>
+  <si>
+    <t>abstracion que respresenta un ciclo de vida del software para comprender, supervisar o controlar un ciclo de vida del software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo espiral de Boehm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tecnico </t>
+  </si>
+  <si>
+    <t>modelo de ciclo de vida del software iterativo e incremental centrado alrededor de la administracion del riesgo.</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>principio de alto nivel que se usa para guiar al proyecto.</t>
+  </si>
+  <si>
+    <t>Solicitud de cambio</t>
+  </si>
+  <si>
+    <t>modo de comunacion manejado por eventos durante el cual los participantes solicitan una caracteristica nueva o modificada en un producto de trabajo.</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Conjunto de activiades que se realiza para lograr un proposito especifico.</t>
+  </si>
+  <si>
+    <t>Promocion</t>
+  </si>
+  <si>
+    <t>version que se ha puesto a disposicion de los demas desarrolladores de forma interna</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>actividad durante la cual los desarrolladores encuentran diferencias entre el sistema y sus modelos ejecutando el sistema con conjuntos de datos de entrada de prueba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursos </t>
+  </si>
+  <si>
+    <t>Bienes que se usan para realizar un trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerimiento </t>
+  </si>
+  <si>
+    <t>Funcion que debe tener el sistema (requerimiento funcional) o una restriccion sobre el sistema visible ante el usuario (requerimiento no funcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restriccion </t>
+  </si>
+  <si>
+    <t>regla asociada a un elemento UML que restringe su semantica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reunion </t>
+  </si>
+  <si>
+    <t>Mecanismo sincrono de comunicacion durante el cual se presentan, discuten, negocian y resuelven problemas, ya sea frente a frente o mediante telefono o videoconferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisor </t>
+  </si>
+  <si>
+    <t>papel que representa a las personas que validan los productos de trabajo contra criterios de calidad.</t>
+  </si>
+  <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>conjunto de operaciones relacionadas que proporciona una clase</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>Conjunto organizado de partes que se comunican diseñado para un proposito especifico</t>
+  </si>
+  <si>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tecnico</t>
+  </si>
+  <si>
+    <t>unidad atomica de trabajo que puede administrarse,</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>lenguaje de modeado unificado</t>
+  </si>
+  <si>
+    <t>usabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cualidad de un sistema que indica con cuanta facilidad pueden interactuar los usuarios con el sistema</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papel que representa a las personas que interactuan en forma directa con el sistema cuando realizan su trabajo. </t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>estado de un articulo de configuracion o un agregado AC en un momento bien definido del tiempo.</t>
+  </si>
+  <si>
+    <t>Somerville, Glosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis estático </t>
+  </si>
+  <si>
+    <t>Análisis basado en herramientas del código fuente de un programa para descubrir errores y anomalías, Las anomalías como las asignaciones sucesivas a unas variables sin un uso intermedio pueden ser errores de programación.</t>
+  </si>
+  <si>
+    <t>Arquitectura cliente-servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo arquitectónico para sistemas distribuidos en el que la funcionalidad del sistema se ofrece como un conjunto de servicios proporcionados por un servidor. Estos son accedidos por computadoras cliente que hacen uso de los servicios. Variantes de este enfoque, como las arquitecturas cliente-servidor de tres capas, utilizan múltiples servidores. </t>
+  </si>
+  <si>
+    <t>Arquitectura software</t>
+  </si>
+  <si>
+    <t>Modelo de la estructura y organización fundamental de un sistema software</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Unidad de software independiente y desplegable que se ha definido completamente y a la que se accede a través de un conjunto de interfaces.</t>
+  </si>
+  <si>
+    <t>Construcción del sistema</t>
+  </si>
+  <si>
+    <t>Proceso de compilar los componentes o unidades que forman un sistema y enlazarlos con otros componentes para crear un programa ejecutable. La construcción del sistema está normalmente automatizada de modo que se minimiza la recompílación. Esta automatización puede ser incorporada a un sistema de procesamiento de lenguajes (como en Java) o puede implicar herramientas CASE para apoyar la construcción del sistema.</t>
+  </si>
+  <si>
+    <t>Control de la calidad (QC)</t>
+  </si>
+  <si>
+    <t>Proceso de asegurar que un equipo de desarrollo de software sigue los estándares de calidad,</t>
+  </si>
+  <si>
+    <t>Desarrollo incrementa</t>
+  </si>
+  <si>
+    <t>Enfoque para el desarrollo de software en el que éste se entrega y utiliza en incrementos,</t>
+  </si>
+  <si>
+    <t>Desarrollo iterativo</t>
+  </si>
+  <si>
+    <t>Enfoque para el desarrollo de software en el que se entrelazan los procesos de especificación, diseño, programación y pruebas.</t>
+  </si>
+  <si>
+    <t>Desarrollo orientado a objetos (OO)</t>
+  </si>
+  <si>
+    <t>Enfoque para el desarrollo de software en el que las abstracciones fundamentales en el sistema son objetos independientes. Se utiliza el mismo tipo de abstracción durante la especificación, diseño y desarrollo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detección de defectos </t>
+  </si>
+  <si>
+    <t>Utilización de procesos y comprobaciones en tiempo de ejecución para detectar y eliminar los defectos en un programa antes de que éstos causen un fallo de funcionamiento del sistema.</t>
+  </si>
+  <si>
+    <t>Diagrama de secuencia</t>
+  </si>
+  <si>
+    <t>Diagrama que muestra la secuencia de interacciones necesarias para completar alguna operación. En UML , los diagramas de secuencias se pueden asociar con los casos de uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de interfaces de usuario </t>
+  </si>
+  <si>
+    <t>Proceso de diseñar el modo en el que los usuarios del sistema acceden a la funcionalidad del sistema y la forma en la que se visualiza la información producida por el sistema.</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Preparación de un sistema para entregar servicios cuando se le soliciten. La disponibilidad normalmente se expresa como un número decimal; así una disponibilidad de 0,999 significa que el sistema puede entregar servicios durante 999 de cada l .000 unidades de tiempo.</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>Problema o área de negocio específico donde son utilizados los sistemas software. Ejemplos de dominios son el control en tiempo real, el procesamiento de datos de negocio y la conmutación de telecomunicaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemento de configuración </t>
+  </si>
+  <si>
+    <t>Unidad legible por la máquina, como un documento o un fichero de código fuente, que es susceptible de cambiar y donde los cambios tienen que ser controlados por un sistema de gestión de la configuración.</t>
+  </si>
+  <si>
+    <t>Enterprise java beans (EJB)</t>
+  </si>
+  <si>
+    <t>Modelo de componentes basado en Java.</t>
+  </si>
+  <si>
+    <t>Versión de un sistema software que se pone a disposición de los clientes del sistema,</t>
+  </si>
+  <si>
+    <t>Descripción de una forma típica en la que se utiliza un sistema o un usuario lleva a cabo alguna actividad.</t>
+  </si>
+  <si>
+    <t>Familia de aplicaciones</t>
+  </si>
+  <si>
+    <t>Conjunto de programas de aplicaciones software que tienen una arquitectura común y una funcionalidad genérica. Éstos se pueden adaptar a las necesidades específicas de los clientes modificando componentes y parámetros de los programas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilidad </t>
+  </si>
+  <si>
+    <t>Capacidad de un sistema para entregar los servicios como se especifican. La fiabilidad se puede especificar cuantitativamente como la probabilidad de que ocurra un fallo de funcionamiento o como la tasa de ocurrencia de éstos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantía de la calidad (QA) </t>
+  </si>
+  <si>
+    <t>Proceso general de definir cómo lograr la calidad del software y cómo la organización de desarrollo conoce el nivel de calidad requerido en el software.</t>
+  </si>
+  <si>
+    <t>Generador de programas</t>
+  </si>
+  <si>
+    <t>Programa que genera otro programa a partir de una especificación abstracta de alto nivel. El generador incorpora conocimientos que se reutilizan en cada actividad de generación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de la configuración </t>
+  </si>
+  <si>
+    <t>Proceso de gestionar los cambios a un producto software que se desarrolla. La gestión de la configuración implica la planificación de la configuración, la gestión de versiones, la construcción del sistema y la gestión del cambio.</t>
+  </si>
+  <si>
+    <t>Gestión de requerimientos</t>
+  </si>
+  <si>
+    <t>Proceso de gestionar los cambios en los requerimientos para asegurar que los cambios efectuados son correctamente analizados e implementados en el sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de riesgos </t>
+  </si>
+  <si>
+    <t>Proceso de identificar los riesgos, evaluar su gravedad, planificar las medidas a adoptar si se presenta el riesgo y supervisar el software y los procesos software para los riesgos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfico de barras (Gantt) </t>
+  </si>
+  <si>
+    <t>Gráfico utilizado por los gestores de proyectos para mostrar las tareas del proyecto, la agenda asociada con estas tareas y las personas que trabajarán en ellas. Muestra las fechas de comienzo y finalización de las tareas y la asignación de personal contra una línea de tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta CASE </t>
+  </si>
+  <si>
+    <t>Herramienta software, como un editor del diseño o un depurador de programas, utilizada para apoyar una actividad en el proceso de desarrollo del software.</t>
+  </si>
+  <si>
+    <t>Ingeniería de sistemas</t>
+  </si>
+  <si>
+    <t>Proceso que trata de la especificación de un sistema, la integración de sus componentes y las pruebas de que el sistema cumple sus requerimientos. La ingeniería de sistemas no sólo trata el sistema software, sino el sistema socio-técnico entero: software, hardware y procesos operativos.</t>
+  </si>
+  <si>
+    <t>Ingeniería del Software Asistida por Computadora (CASE)</t>
+  </si>
+  <si>
+    <t>Proceso de desarrollar software utilizando ayuda automatizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspección de programas </t>
+  </si>
+  <si>
+    <t>Proceso de verificación en el que un grupo de revisores examina un programa, línea por línea, con el objetivo de detectar errores.</t>
+  </si>
+  <si>
+    <t>Interfaz de Programación de Aplicaciones (API)</t>
+  </si>
+  <si>
+    <t>Interfaz, generalmente especificada como un conjunto de operaciones, definida por un programa de aplicación que permite acceder a la funcionalidad del programa. Esto significa que no sólo se puede acceder a esta funcionalidad a través de la interfaz de usuario, sino que otros programas pueden utilizarla directamente.</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Especificación de los atributos y operaciones asociados con un componente software. La interfaz es utilizada como el medio de tener acceso a la funcionalidad del componente.</t>
+  </si>
+  <si>
+    <t>Mejora de procesos</t>
+  </si>
+  <si>
+    <t>Proceso de hacer cambios a un proceso con el objetivo de hacerlo más previsible o mejorar la calidad de sus salidas. Por ejemplo, si su objetivo es reducir el número de defectos en el software entregado, podría mejorar el proceso añadiendo nuevas actividades de validación.</t>
+  </si>
+  <si>
+    <t>Método estructurado</t>
+  </si>
+  <si>
+    <t>Método de diseño de software que define los modelos del sistema que se deben desarrollar, las reglas y pautas que se deben aplicar a estos modelos y un proceso a seguir en el desarrollo del diseño.</t>
+  </si>
+  <si>
+    <t>Métodos ágiles</t>
+  </si>
+  <si>
+    <t>Métodos de desarrollo de software dirigidos a la entrega rápida del mismo. El software se desarrolla y entrega en incrementos, y se minimiza el proceso de documentación y la burocracia.</t>
+  </si>
+  <si>
+    <t>Métodos formales</t>
+  </si>
+  <si>
+    <t>Métodos de desarrollo de software basados en enfoques matemáticamente rigurosos que modelan el software utilizando construcciones matemáticas formales como predicados y conjuntos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métrica software </t>
+  </si>
+  <si>
+    <t>Atributo de un sistema o proceso software que se puede medir o expresar numéricamente. Las métricas de procesos son atributos del proceso como el tiempo necesario para completar una tarea; las métricas de productos son atributos del software mismo como el tamaño o la complejidad.</t>
+  </si>
+  <si>
+    <t>Modelo de objetos</t>
+  </si>
+  <si>
+    <t>Modelo de un sistema software que se estructura y organiza como un conjunto de clases de objetos y las relaciones entre estas clases. Pueden existir varias perspectivas diferentes en el modelo, como una perspectiva del estado y una perspectiva de la secuencia.</t>
+  </si>
+  <si>
+    <t>Modelo de procesos</t>
+  </si>
+  <si>
+    <t>Representación abstracta de un proceso. Los modelos de procesos pueden ser representados desde varias perspectivas y mostrar las actividades implicadas en un proceso, los objetos utilizados en el proceso, las restricciones que se aplican al proceso y los roles de las personas involucradas en el proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocultación de información </t>
+  </si>
+  <si>
+    <t>Utilización de construcciones de lenguajes de programación para ocultar la representación de las estructuras de datos y controlar el acceso externo a estas estructuras.</t>
+  </si>
+  <si>
+    <t>Patrón de diseño</t>
+  </si>
+  <si>
+    <t>Solución probada a un problema común que capta las experiencias y buenas prácticas de una forma que puede ser reutilizada. Es una representación abstracta que se puede instanciar de varias formas</t>
+  </si>
+  <si>
+    <t>Plan de calidad</t>
+  </si>
+  <si>
+    <t>Plan que define los procesos y procedimientos de calidad que se deben utilizar. Implica seleccionar e instanciar estándares para productos y procesos y definir los atributos de la calidad requeridos del sistema.</t>
+  </si>
+  <si>
+    <t>Principios de diseño de las interfaces de usuario</t>
+  </si>
+  <si>
+    <t>Conjunto de principios que expresan buenas prácticas para el diseño de interfaces de usuario,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso del software </t>
+  </si>
+  <si>
+    <t>Conjunto relacionado de actividades y procesos implicados en el desarrollo y evolución de un sistema software.</t>
+  </si>
+  <si>
+    <t>Propiedad emergente</t>
+  </si>
+  <si>
+    <t>Propiedad que sólo se hace evidente una vez que se han integrado todos los componentes del sistema para crearlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protección </t>
+  </si>
+  <si>
+    <t>Capacidad de un sistema para protegerse contra intrusiones accidentales o premeditadas, prototipado Mago de Oz Enfoque para el prototipado de las interfaces de usuario en el que los comandos introducidos por los usuarios son interpretados por una persona quien responde como si fuera la computadora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requerimiento de confiabilidad </t>
+  </si>
+  <si>
+    <t>Requerimiento del sistema que se incluye para ayudar a alcanzar la confiabilidad requerida para un sistema. Los requerimientos de confiabilidad no funcionales especifican los valores de los atributos de la confiabilidad; los requerimientos de confiabilidad funcionales son requerimientos funcionales para evitar, detectar, tolerar o reponerse de defectos y fallos de funcionamiento del sistema.</t>
+  </si>
+  <si>
+    <t>Requerimiento, funcional</t>
+  </si>
+  <si>
+    <t>Declaración de alguna función o característica que se debe implementar en un sistema,</t>
+  </si>
+  <si>
+    <t>Requerimiento, no funcional</t>
+  </si>
+  <si>
+    <t>Declaración de una restricción o comportamiento esperado que se aplica a un sistema. Esta restricción se puede referir a las propiedades emergentes del software que se está desarrollando o al proceso de desarrollo.</t>
+  </si>
+  <si>
+    <t>Sistema crítico</t>
+  </si>
+  <si>
+    <t>Sistema informático cuyo fallo de funcionamiento puede causar importantes pérdidas económicas, humanas o medioambientales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de objetos distribuidos </t>
+  </si>
+  <si>
+    <t>Sistema distribuido en el que los componentes ejecutables son objetos.</t>
+  </si>
+  <si>
+    <t>Sistema de procesamiento de datos</t>
+  </si>
+  <si>
+    <t>Sistema cuyo propósito es procesar grandes cantidades de datos estructurados. Estos sistemas normalmente procesan los datos por lotes y siguen un modelo de entrada-proceso-salida. Ejemplos de sistemas de procesamiento de datos son los sistemas de cuentas y facturas, y los sistemas de pago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de tiempo real </t>
+  </si>
+  <si>
+    <t>Sistema que tiene que responder a eventos externos y procesarlos en «tiempo real». La corrección del sistema no sólo depende de lo que hace sino también de la velocidad con que lo hace. Los sistemas de tiempo real normalmente se organizan como un conjunto de procesos concurrentes que cooperan entre sí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema distribuido </t>
+  </si>
+  <si>
+    <t>Sistema software en el que los subsistemas o componentes software se ejecutan en diferentes procesadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema peer-to-peer </t>
+  </si>
+  <si>
+    <t>Sistema distribuido en el que no hay distinción entre clientes y servidores. Las computadoras en el sistema pueden actuar como clientes y como servidores. Entre las aplicaciones peer-topeer se incluyen la compartición de ficheros, los sistemas de mensajería instantánea y los sistemas de soporte a la cooperación.</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de verificar que un sistema cumple las necesidades y expectativas del cliente, </t>
+  </si>
+  <si>
+    <t>Verificación</t>
+  </si>
+  <si>
+    <t>Proceso de verificar que un sistema cumple su especificación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +911,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,16 +951,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -366,7 +963,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -715,299 +1332,1473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="98.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="160.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="72.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1018,19 +2809,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="41.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="81.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>47</v>
       </c>
@@ -1076,15 +2867,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>51</v>
       </c>
@@ -1092,12 +2883,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1119,9 +2918,9 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
